--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repos\ENGSCI762-A2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\ENGSCI762-A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Q3" sheetId="1" r:id="rId1"/>
-    <sheet name="Q5" sheetId="2" r:id="rId2"/>
-    <sheet name="Q5 chart" sheetId="3" r:id="rId3"/>
+    <sheet name="Q1" sheetId="5" r:id="rId1"/>
+    <sheet name="Q2" sheetId="4" r:id="rId2"/>
+    <sheet name="Q3" sheetId="1" r:id="rId3"/>
+    <sheet name="Q5" sheetId="2" r:id="rId4"/>
+    <sheet name="Q5 chart" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="47">
   <si>
     <t>/</t>
   </si>
@@ -152,6 +154,21 @@
   </si>
   <si>
     <t>obj=</t>
+  </si>
+  <si>
+    <t>r_j</t>
+  </si>
+  <si>
+    <t>Optimal solution via rule</t>
+  </si>
+  <si>
+    <t>L_max = 10</t>
+  </si>
+  <si>
+    <t>Optimal solution alternative</t>
+  </si>
+  <si>
+    <t>Order:</t>
   </si>
 </sst>
 </file>
@@ -364,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -397,11 +414,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -726,10 +752,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BP12"/>
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B10:L12">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:L22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BP17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +1357,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1957,59 +2377,67 @@
       <c r="BO12" s="12"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>6</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12:AD12 B3:P3 B4:V4 B5:U5 W5:AC5 B6:AB6 AK6:AL6 B7:AL7 B8:U8 B9:AD9 B10:AB10 B11:AL11">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,12 +3081,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Q5" sheetId="2" r:id="rId4"/>
     <sheet name="Q5 chart" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="47">
   <si>
     <t>/</t>
   </si>
@@ -381,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -416,6 +416,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,7 +1149,7 @@
   </sheetPr>
   <dimension ref="A1:BP17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
@@ -2437,7 +2438,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3078,6 +3079,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3085,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,114 +3190,42 @@
       <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>66</v>
-      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+      <c r="BL1" s="1"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="1"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
@@ -3391,286 +3321,220 @@
       <c r="AF2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="3"/>
+      <c r="L3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="9"/>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="S4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="31">
         <v>0</v>
@@ -3766,7 +3630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="26" t="s">
         <v>0</v>
@@ -3862,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
@@ -3923,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>4</v>
       </c>
@@ -3976,7 +3840,7 @@
       <c r="AD9" s="27"/>
       <c r="AE9" s="28"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -4037,7 +3901,7 @@
       <c r="AD10" s="27"/>
       <c r="AE10" s="28"/>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -4092,7 +3956,7 @@
       <c r="AD11" s="27"/>
       <c r="AE11" s="28"/>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>7</v>
       </c>
@@ -4144,87 +4008,88 @@
       <c r="AE12" s="30"/>
     </row>
     <row r="14" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
         <f>B15*C15</f>
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" ref="D16:D19" si="0">B16*C16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6">
         <v>13</v>
       </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="11">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4240,5 +4105,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>